--- a/Symal/27264/res_INF-HSEQ CC0375-ITP-021 Screw Piling. REV 2.xlsx
+++ b/Symal/27264/res_INF-HSEQ CC0375-ITP-021 Screw Piling. REV 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Symal\27264\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2501E615-4D73-4D7A-BF9C-830E0E2AD1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428EA420-94CA-4015-9667-A3B14562F392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2280" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9435" yWindow="2115" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="115">
   <si>
     <t>type</t>
   </si>
@@ -67,85 +67,304 @@
     <t>checklist</t>
   </si>
   <si>
-    <t xml:space="preserve">Ref docs - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceptance Criteria - </t>
-  </si>
-  <si>
     <t>section</t>
   </si>
   <si>
     <t>1.0 Preliminaries</t>
   </si>
   <si>
-    <t xml:space="preserve">Key - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UGL Key - </t>
-  </si>
-  <si>
     <t>checkpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 - </t>
-  </si>
-  <si>
     <t xml:space="preserve">SHL Key - </t>
   </si>
   <si>
     <t>3.0 Piling</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1 - </t>
-  </si>
-  <si>
     <t>INF-HSEQ CC0375-ITP-021 Screw Piling. REV 2</t>
   </si>
   <si>
     <t>2.0 Materials &amp; Equipment</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3 - </t>
-  </si>
-  <si>
     <t>4.0 Conformance</t>
+  </si>
+  <si>
+    <t>1.1 - Documentation</t>
+  </si>
+  <si>
+    <t>Ref docs - Issued drawings / Site copy drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Check that you have the latest site and engineering drawings BEFORE starting each task/set of tasks. UGL to confirm current IFC Drawings &amp; Spec</t>
+  </si>
+  <si>
+    <t>Key - S</t>
+  </si>
+  <si>
+    <t>1.2 - Determine lot size</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Lots to be broken up accordingly and outlined on a lot map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks / record (e.g. test frequency, reports, certificates, checklist etc) - </t>
+  </si>
+  <si>
+    <t>Piling Schedule</t>
+  </si>
+  <si>
+    <t>Lot map</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>1.3 - Material Certification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - All Materials Certificate for all materials that are part of this works to be submitted to the client and approved  </t>
+  </si>
+  <si>
+    <t>Material Certification</t>
+  </si>
+  <si>
+    <t>1.4 - Geotechnical Engineer</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Proposed Geotechnical Engineer holds correct qualifications and Experience to provide Screw Pile design.</t>
+  </si>
+  <si>
+    <t>Bore Hole Log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1 - Screw Piles Shop Drawing </t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0003 Piling [Cl 3.3.2]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Shop Drawings based on BH-308 to be submitted, reviewed, and approved by UGL.</t>
+  </si>
+  <si>
+    <t>Shop Drawings to include.</t>
+  </si>
+  <si>
+    <t>– Dimensional Requirement including tolerances if applicable.</t>
+  </si>
+  <si>
+    <t>– Sections designation and material grade</t>
+  </si>
+  <si>
+    <t>– All Welds and weld procedure</t>
+  </si>
+  <si>
+    <t>– Corrosion protection requirements</t>
+  </si>
+  <si>
+    <t>Key - H</t>
+  </si>
+  <si>
+    <t>UGL Key - H</t>
+  </si>
+  <si>
+    <t>SHL Key - H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Drawings </t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>2.2 - Manufacturing of Steel Screw.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Fabrications</t>
+  </si>
+  <si>
+    <t>Welding</t>
+  </si>
+  <si>
+    <t>Helices.</t>
+  </si>
+  <si>
+    <t>○ Where CHS is cut using a mechanical saw, cuts to be straight and at an angle as the drawings, ±1%. The height difference does not exceed 5mm. There is to be no excessive gapping.</t>
+  </si>
+  <si>
+    <t>○ All welding to be in accordance with AS/NZA 1554. Welding procedure specification to be submitted, reviewed, and approved by UGL.</t>
+  </si>
+  <si>
+    <t>○ Pitch at the inside of the helix must be equal, (±4% and no greater than 10mm). Gradients of the helices to be constant. Any radial measurements of helices should be perpendicular (±4% and no greater than 10mm).</t>
+  </si>
+  <si>
+    <t>2.3 - Piling Machine</t>
+  </si>
+  <si>
+    <t>Ref docs - Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Details and calibration records of the Piling machine and any other tools that may be required shall be provided for approval by the Superintendent.</t>
+  </si>
+  <si>
+    <t>○ Calibration records for piling rig monitoring instruments to be submitted to Superintendent</t>
+  </si>
+  <si>
+    <t>Key - R</t>
+  </si>
+  <si>
+    <t>UGL Key - S</t>
+  </si>
+  <si>
+    <t>SHL Key - W</t>
+  </si>
+  <si>
+    <t>Calibration records</t>
+  </si>
+  <si>
+    <t>3.1 - Survey Setout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - Pile locations shall be set-out at locations shown on the drawings and specifications </t>
+  </si>
+  <si>
+    <t>○ Each pile is pegged by the surveyor and identified with a unique pile number.</t>
+  </si>
+  <si>
+    <t>Survey Report</t>
+  </si>
+  <si>
+    <t>3.2 - Screw Pile Installation</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0003 Piling [Cl 3.4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - Each screw piles shall be inspected as the works proceeds. </t>
+  </si>
+  <si>
+    <t>Notice: 3 working days prior to excavation of test pile</t>
+  </si>
+  <si>
+    <t>Geotechnical Engineer Sign Off Sheet</t>
+  </si>
+  <si>
+    <t>Pile Log Sheet</t>
+  </si>
+  <si>
+    <t>○ Rate of penetration to be monitored, if one helix pitch per revolution, it needs to be recorded and designer notified.</t>
+  </si>
+  <si>
+    <t>○ Screw piles installed as per design and required machine torque.</t>
+  </si>
+  <si>
+    <t>○ Rate of penetration and torque vs depth to be recorded.</t>
+  </si>
+  <si>
+    <t>○ Each piles finish height is to be checked.</t>
+  </si>
+  <si>
+    <t>3.3 - Concrete supply</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0003 Piling [Cl 3.9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - Verify: </t>
+  </si>
+  <si>
+    <t>– Concrete mix</t>
+  </si>
+  <si>
+    <t>○ A concrete delivery docket to be supplied with each batch delivered.</t>
+  </si>
+  <si>
+    <t>○ Concrete work shall be in accordance with the technical specification for concrete supply, construction and grouting and any other notes on drawings.</t>
+  </si>
+  <si>
+    <t>UGL Key - W</t>
+  </si>
+  <si>
+    <t>Material dockets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concrete Pour Record </t>
+  </si>
+  <si>
+    <t>3.4 - Concrete Placement</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Concrete to be placed as per the construction drawings in accordance with AS3600.</t>
+  </si>
+  <si>
+    <t>Notice: 1 working day prior to placing concrete for test pile</t>
+  </si>
+  <si>
+    <t>○ Prior to the pour ensure there is no water or debris at the base of the pile shaft.</t>
+  </si>
+  <si>
+    <t>3.5 - Pile Cap Installation.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Reinforcement for pile cap to conform with drawings and specification. Reinforcement grade to be either 250N or 500N.</t>
+  </si>
+  <si>
+    <t>○ Formwork to conform with drawings and specification.</t>
+  </si>
+  <si>
+    <t>○ Concrete to be vibrated adequately during placement to ensure there are no voids or segregation.</t>
+  </si>
+  <si>
+    <t>Concrete Pour Record &amp; Pile Log Sheet</t>
+  </si>
+  <si>
+    <t>3.6 - Concrete sampling</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - The nominal rate of sampling shall be taken:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Testing shall be done at a NATA registered laboratory </t>
+  </si>
+  <si>
+    <t>(b) Slump: One per batch of concrete (xxx mm)</t>
+  </si>
+  <si>
+    <t>(a) Compressive strength: One set per pour or as otherwise directed by Superintendent;</t>
+  </si>
+  <si>
+    <t>Test report</t>
+  </si>
+  <si>
+    <t>3.7 - Concrete RL and depth</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Screw Piles depth, size, position, and concrete RL as per the Piling Pile Log Sheet and Drawings.</t>
+  </si>
+  <si>
+    <t>4.1 - Survey</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0003 Piling [Cl 3.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - All piles shall be constructed within the tolerance specified below: </t>
+  </si>
+  <si>
+    <t>As-Built Survey Conformance</t>
+  </si>
+  <si>
+    <t>○ The centreline at the top of the piles shall be within 75mm of the specified position.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ The inclination of the pile shaft shall be within ± 4% of the nominated inclination. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ The tolerance on the level of the top of the piles shall be ± 20mm. </t>
   </si>
 </sst>
 </file>
@@ -288,7 +507,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,6 +707,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,7 +877,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -667,6 +892,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1024,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,7 +1306,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1084,24 +1318,24 @@
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1109,7 +1343,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1117,7 +1351,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1136,15 +1370,15 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1152,15 +1386,18 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>25</v>
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1168,7 +1405,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1176,34 +1413,31 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
+      <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1211,15 +1445,18 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
+      <c r="A18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1227,7 +1464,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1235,26 +1472,23 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>12</v>
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
+      <c r="A22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1262,23 +1496,26 @@
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>31</v>
+      <c r="A24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>23</v>
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1286,42 +1523,39 @@
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>12</v>
+      <c r="A28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>19</v>
+      <c r="A29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>20</v>
+      <c r="B30" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1329,23 +1563,23 @@
         <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>35</v>
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>26</v>
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1353,7 +1587,7 @@
         <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1361,26 +1595,26 @@
         <v>13</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1388,7 +1622,7 @@
         <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1396,15 +1630,15 @@
         <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>27</v>
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1412,34 +1646,31 @@
         <v>13</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>12</v>
+      <c r="A43" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>19</v>
+      <c r="A44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1447,7 +1678,7 @@
         <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1455,15 +1686,15 @@
         <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>28</v>
+      <c r="A47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1471,7 +1702,7 @@
         <v>13</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1479,18 +1710,15 @@
         <v>13</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>12</v>
+      <c r="A50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1498,15 +1726,18 @@
         <v>13</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>20</v>
+      <c r="A52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1514,23 +1745,23 @@
         <v>13</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>32</v>
+      <c r="A54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>29</v>
+      <c r="A55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1538,34 +1769,31 @@
         <v>13</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>12</v>
+      <c r="A58" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>19</v>
+      <c r="A59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1573,7 +1801,7 @@
         <v>13</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1581,23 +1809,26 @@
         <v>13</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>30</v>
+      <c r="A62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>15</v>
+      <c r="A63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1605,18 +1836,15 @@
         <v>13</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>12</v>
+      <c r="A65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1624,7 +1852,7 @@
         <v>13</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1632,31 +1860,31 @@
         <v>13</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>40</v>
+      <c r="A69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>15</v>
+      <c r="A70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1664,26 +1892,26 @@
         <v>13</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B73" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1691,7 +1919,7 @@
         <v>13</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1699,42 +1927,39 @@
         <v>13</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>39</v>
+      <c r="A76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>16</v>
+      <c r="A78" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>12</v>
+      <c r="A79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1742,7 +1967,7 @@
         <v>13</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1750,7 +1975,7 @@
         <v>13</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1758,15 +1983,15 @@
         <v>13</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>38</v>
+      <c r="A83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1774,7 +1999,7 @@
         <v>13</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1782,26 +2007,26 @@
         <v>13</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B87" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1809,7 +2034,7 @@
         <v>13</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1817,15 +2042,15 @@
         <v>13</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>37</v>
+      <c r="A90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1833,58 +2058,55 @@
         <v>13</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>12</v>
+      <c r="A93" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>19</v>
+      <c r="A94" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>20</v>
+      <c r="A95" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>31</v>
+      <c r="B96" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>36</v>
+      <c r="A97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1892,7 +2114,7 @@
         <v>13</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1900,26 +2122,26 @@
         <v>13</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B101" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C101" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1927,7 +2149,7 @@
         <v>13</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1935,58 +2157,55 @@
         <v>13</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>41</v>
+      <c r="A104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>33</v>
+      <c r="A105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>12</v>
+      <c r="A108" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>19</v>
+      <c r="A109" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -1994,7 +2213,7 @@
         <v>13</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2002,7 +2221,398 @@
         <v>13</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>31</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
